--- a/planilhas/CTC.ECV.xlsx
+++ b/planilhas/CTC.ECV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufscbr-my.sharepoint.com/personal/quadros_junior_ufsc_br/Documents/Prefeitura/Licitações/Ar-Condicionado/Levantamento Centros e Campi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_3506A952AC3F0629469B318752C26D580E7EBA1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85EA9DFB-7A27-4F16-9F49-8AE016373220}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DD0281-EDC1-47A2-9309-45E2CF33DAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLOCO A" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="BLOCO C " sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BLOCO A'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BLOCO B'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -63,9 +62,6 @@
   </si>
   <si>
     <t>O aparelho liga?</t>
-  </si>
-  <si>
-    <t>O aparelho gela?</t>
   </si>
   <si>
     <t>Quando ligado, apresenta vazamento</t>
@@ -685,12 +681,15 @@
   <si>
     <t>004002</t>
   </si>
+  <si>
+    <t>Aparelho gela?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +747,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -887,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,6 +1001,43 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1006,45 +1050,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J77"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J77"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,41 +1354,72 @@
     <col min="10" max="10" width="16" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="57" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:15" ht="57" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>396645</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>396645</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>210744</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>8</v>
@@ -1388,28 +1428,26 @@
         <v>7</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
-        <v>210744</v>
+        <v>210706</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>8</v>
@@ -1420,405 +1458,408 @@
       <c r="D4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>210706</v>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>210704</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>230482</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>210704</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>210702</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>230482</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>210712</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>210702</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>7</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>128</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>210712</v>
+    <row r="9" spans="1:15" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>210710</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>207319</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>396644</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>210698</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>230483</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>210710</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>207319</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>396644</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>210698</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>6</v>
-      </c>
       <c r="E13" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>230483</v>
+        <v>177456</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>15</v>
+      <c r="C14" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>177456</v>
+    <row r="15" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>210708</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>23</v>
+      <c r="E15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
-        <v>210708</v>
+        <v>210696</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>26</v>
+      <c r="E16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>210696</v>
+      <c r="A17" s="4">
+        <v>210781</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>15</v>
+      <c r="E17" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>13</v>
@@ -1826,8 +1867,8 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>210781</v>
+      <c r="A18" s="1">
+        <v>210773</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>8</v>
@@ -1839,55 +1880,55 @@
         <v>6</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>133</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>210773</v>
+        <v>210784</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>210784</v>
+        <v>210765</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>8</v>
@@ -1899,25 +1940,25 @@
         <v>6</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>210765</v>
+        <v>210777</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>8</v>
@@ -1929,25 +1970,25 @@
         <v>6</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>210777</v>
+        <v>210713</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>8</v>
@@ -1959,25 +2000,25 @@
         <v>6</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>210713</v>
+        <v>210709</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>8</v>
@@ -1989,25 +2030,25 @@
         <v>6</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>210709</v>
+      <c r="A24" s="5">
+        <v>210780</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>8</v>
@@ -2019,25 +2060,25 @@
         <v>6</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>210780</v>
+        <v>210782</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>8</v>
@@ -2049,25 +2090,25 @@
         <v>6</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>210782</v>
+        <v>210699</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>8</v>
@@ -2079,25 +2120,25 @@
         <v>6</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>121</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>210699</v>
+      <c r="A27" s="1">
+        <v>210769</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>8</v>
@@ -2109,25 +2150,25 @@
         <v>6</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>122</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>210769</v>
+      <c r="A28" s="18">
+        <v>210700</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>8</v>
@@ -2139,25 +2180,25 @@
         <v>6</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>123</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
-        <v>210700</v>
+      <c r="A29" s="1">
+        <v>210707</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>8</v>
@@ -2169,25 +2210,25 @@
         <v>6</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>124</v>
+        <v>14</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>210707</v>
+        <v>210772</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>8</v>
@@ -2199,25 +2240,25 @@
         <v>6</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>210772</v>
+      <c r="A31" s="18">
+        <v>210770</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>8</v>
@@ -2229,25 +2270,25 @@
         <v>6</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
-        <v>210770</v>
+      <c r="A32" s="1">
+        <v>210697</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>8</v>
@@ -2259,25 +2300,25 @@
         <v>6</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>210697</v>
+        <v>210705</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>8</v>
@@ -2289,25 +2330,25 @@
         <v>6</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>210705</v>
+      <c r="A34" s="18">
+        <v>210775</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>8</v>
@@ -2319,25 +2360,25 @@
         <v>6</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
-        <v>210775</v>
+        <v>210785</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>8</v>
@@ -2349,26 +2390,24 @@
         <v>6</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
-        <v>210785</v>
-      </c>
+      <c r="A36" s="18"/>
       <c r="B36" s="17" t="s">
         <v>8</v>
       </c>
@@ -2379,47 +2418,47 @@
         <v>6</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="18">
+        <v>340282</v>
+      </c>
       <c r="B37" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="D37" s="18"/>
       <c r="E37" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>13</v>
+      </c>
       <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
-        <v>340282</v>
+        <v>340292</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>8</v>
@@ -2429,25 +2468,25 @@
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
-        <v>340292</v>
+        <v>340286</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>8</v>
@@ -2457,25 +2496,25 @@
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
-        <v>340286</v>
+        <v>340272</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>8</v>
@@ -2485,25 +2524,25 @@
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
-        <v>340272</v>
+        <v>340276</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>8</v>
@@ -2511,27 +2550,27 @@
       <c r="C41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
-        <v>340276</v>
+      <c r="A42" s="1">
+        <v>340270</v>
       </c>
       <c r="B42" s="17" t="s">
         <v>8</v>
@@ -2541,25 +2580,25 @@
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>340270</v>
+        <v>340279</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>8</v>
@@ -2567,27 +2606,27 @@
       <c r="C43" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>46</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>340279</v>
+      <c r="A44" s="18">
+        <v>340271</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>8</v>
@@ -2597,25 +2636,25 @@
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
-        <v>340271</v>
+      <c r="A45" s="1">
+        <v>340287</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>8</v>
@@ -2623,27 +2662,27 @@
       <c r="C45" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>340287</v>
+        <v>340289</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>8</v>
@@ -2653,25 +2692,25 @@
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>340289</v>
+      <c r="A47" s="18">
+        <v>340285</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>8</v>
@@ -2681,25 +2720,25 @@
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>151</v>
+        <v>14</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
-        <v>340285</v>
+        <v>340277</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>8</v>
@@ -2709,25 +2748,25 @@
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
-        <v>340277</v>
+        <v>340281</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>8</v>
@@ -2737,25 +2776,25 @@
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" s="19"/>
     </row>
     <row r="50" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
-        <v>340281</v>
+        <v>340283</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>8</v>
@@ -2765,25 +2804,25 @@
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" s="19"/>
     </row>
     <row r="51" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
-        <v>340283</v>
+        <v>340273</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>8</v>
@@ -2793,25 +2832,25 @@
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J51" s="19"/>
     </row>
     <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
-        <v>340273</v>
+      <c r="A52" s="1">
+        <v>340288</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>8</v>
@@ -2821,25 +2860,25 @@
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" s="19"/>
     </row>
     <row r="53" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>340288</v>
+      <c r="A53" s="18">
+        <v>340291</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>8</v>
@@ -2849,25 +2888,25 @@
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>54</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" s="19"/>
     </row>
     <row r="54" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
-        <v>340291</v>
+      <c r="A54" s="1">
+        <v>340274</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>8</v>
@@ -2877,25 +2916,25 @@
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" s="19"/>
     </row>
     <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>340274</v>
+        <v>340280</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>8</v>
@@ -2905,25 +2944,25 @@
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J55" s="19"/>
     </row>
     <row r="56" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>340280</v>
+        <v>340278</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>8</v>
@@ -2933,25 +2972,25 @@
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="17" t="s">
         <v>57</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J56" s="19"/>
     </row>
-    <row r="57" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>340278</v>
+        <v>340269</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>8</v>
@@ -2961,19 +3000,19 @@
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57" s="19"/>
     </row>
@@ -2989,25 +3028,25 @@
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J58" s="19"/>
     </row>
-    <row r="59" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>340269</v>
+    <row r="59" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>340275</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>8</v>
@@ -3017,25 +3056,25 @@
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59" s="19"/>
     </row>
     <row r="60" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
-        <v>340275</v>
+      <c r="A60" s="1">
+        <v>340290</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>8</v>
@@ -3045,25 +3084,25 @@
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="35" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60" s="19"/>
     </row>
     <row r="61" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>340290</v>
+        <v>340284</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>8</v>
@@ -3073,25 +3112,25 @@
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>153</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" s="19"/>
     </row>
     <row r="62" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>340284</v>
+        <v>352379</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>8</v>
@@ -3101,25 +3140,25 @@
       </c>
       <c r="D62" s="19"/>
       <c r="E62" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J62" s="19"/>
     </row>
     <row r="63" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>352379</v>
+        <v>352382</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>8</v>
@@ -3129,25 +3168,25 @@
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>352382</v>
+        <v>340293</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>8</v>
@@ -3157,25 +3196,25 @@
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J64" s="19"/>
     </row>
     <row r="65" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>340293</v>
+        <v>340294</v>
       </c>
       <c r="B65" s="17" t="s">
         <v>8</v>
@@ -3185,25 +3224,25 @@
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J65" s="19"/>
     </row>
     <row r="66" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>340294</v>
+        <v>340295</v>
       </c>
       <c r="B66" s="17" t="s">
         <v>8</v>
@@ -3213,25 +3252,25 @@
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" s="19"/>
     </row>
     <row r="67" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>340295</v>
+      <c r="A67" s="18">
+        <v>352364</v>
       </c>
       <c r="B67" s="17" t="s">
         <v>8</v>
@@ -3239,27 +3278,29 @@
       <c r="C67" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="E67" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67" s="19"/>
     </row>
     <row r="68" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
-        <v>352364</v>
+        <v>352373</v>
       </c>
       <c r="B68" s="17" t="s">
         <v>8</v>
@@ -3268,28 +3309,28 @@
         <v>7</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68" s="19"/>
     </row>
     <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
-        <v>352373</v>
+        <v>352389</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>8</v>
@@ -3298,28 +3339,28 @@
         <v>7</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" s="19"/>
     </row>
     <row r="70" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
-        <v>352389</v>
+        <v>352367</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>8</v>
@@ -3328,28 +3369,28 @@
         <v>7</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" s="19"/>
     </row>
     <row r="71" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
-        <v>352367</v>
+        <v>352376</v>
       </c>
       <c r="B71" s="17" t="s">
         <v>8</v>
@@ -3358,28 +3399,28 @@
         <v>7</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J71" s="19"/>
     </row>
     <row r="72" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
-        <v>352376</v>
+        <v>352388</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>8</v>
@@ -3388,28 +3429,28 @@
         <v>7</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72" s="19"/>
     </row>
     <row r="73" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
-        <v>352388</v>
+        <v>352370</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>8</v>
@@ -3418,28 +3459,28 @@
         <v>7</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J73" s="19"/>
     </row>
     <row r="74" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
-        <v>352370</v>
+        <v>352375</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>8</v>
@@ -3448,28 +3489,28 @@
         <v>7</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J74" s="19"/>
     </row>
     <row r="75" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
-        <v>352375</v>
+        <v>352378</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>8</v>
@@ -3478,87 +3519,56 @@
         <v>7</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="19"/>
+    </row>
+    <row r="76" spans="1:10" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="G75" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="19"/>
-    </row>
-    <row r="76" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="18">
-        <v>352378</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>89</v>
-      </c>
       <c r="E76" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="19"/>
-    </row>
-    <row r="77" spans="1:10" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="J76" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3568,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J78"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,13 +3619,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,19 +3640,19 @@
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="G2" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="15"/>
     </row>
@@ -3651,58 +3661,58 @@
         <v>230432</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="G3" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>230503</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="19"/>
     </row>
@@ -3711,26 +3721,26 @@
         <v>396643</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="19"/>
     </row>
@@ -3739,28 +3749,28 @@
         <v>230488</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="19"/>
     </row>
@@ -3769,28 +3779,28 @@
         <v>230489</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="19"/>
     </row>
@@ -3799,7 +3809,7 @@
         <v>210703</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>7</v>
@@ -3808,19 +3818,19 @@
         <v>6</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="19"/>
     </row>
@@ -3829,28 +3839,28 @@
         <v>236918</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="19"/>
     </row>
@@ -3859,141 +3869,141 @@
         <v>236917</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="48" t="s">
+      <c r="B11" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="38"/>
+      <c r="E11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="39"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="39"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>189626</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="39"/>
+        <v>66</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>189639</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="40"/>
+        <v>66</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>230496</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="29"/>
     </row>
@@ -4002,28 +4012,28 @@
         <v>230499</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="29"/>
     </row>
@@ -4032,28 +4042,28 @@
         <v>396643</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="29"/>
     </row>
@@ -4062,28 +4072,28 @@
         <v>230488</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="29"/>
     </row>
@@ -4092,58 +4102,58 @@
         <v>197425</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="G21" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" s="29"/>
     </row>
@@ -4152,28 +4162,28 @@
         <v>230504</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="19"/>
     </row>
@@ -4182,58 +4192,58 @@
         <v>230490</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="G24" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="19"/>
     </row>
@@ -4242,7 +4252,7 @@
         <v>396643</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -4258,26 +4268,26 @@
         <v>392523</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="19"/>
     </row>
@@ -4286,28 +4296,28 @@
         <v>102012</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" s="19"/>
     </row>
@@ -4316,7 +4326,7 @@
         <v>298912</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>7</v>
@@ -4325,19 +4335,19 @@
         <v>6</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" s="19"/>
     </row>
@@ -4346,7 +4356,7 @@
         <v>210778</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>7</v>
@@ -4355,19 +4365,19 @@
         <v>6</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" s="19"/>
     </row>
@@ -4376,28 +4386,28 @@
         <v>230487</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" s="19"/>
     </row>
@@ -4406,28 +4416,28 @@
         <v>230497</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" s="19"/>
     </row>
@@ -4436,26 +4446,26 @@
         <v>389875</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" s="19"/>
     </row>
@@ -4464,28 +4474,28 @@
         <v>207320</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="F33" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" s="19"/>
     </row>
@@ -4494,28 +4504,28 @@
         <v>179338</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" s="19"/>
     </row>
@@ -4524,28 +4534,28 @@
         <v>179336</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" s="19"/>
     </row>
@@ -4553,29 +4563,29 @@
       <c r="A36" s="9">
         <v>352366</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="45" t="s">
-        <v>14</v>
+      <c r="B36" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="J36" s="19"/>
     </row>
@@ -4583,57 +4593,57 @@
       <c r="A37" s="9">
         <v>352368</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
       <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>352374</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>352369</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="45" t="s">
-        <v>14</v>
+      <c r="B39" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="J39" s="19"/>
     </row>
@@ -4641,28 +4651,28 @@
       <c r="A40" s="11">
         <v>352371</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>352381</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -4670,28 +4680,28 @@
         <v>230485</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" s="19"/>
     </row>
@@ -4700,28 +4710,28 @@
         <v>230495</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" s="19"/>
     </row>
@@ -4730,28 +4740,28 @@
         <v>175704</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" s="19"/>
     </row>
@@ -4760,28 +4770,28 @@
         <v>161689</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45" s="19"/>
     </row>
@@ -4790,28 +4800,28 @@
         <v>230497</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46" s="19"/>
     </row>
@@ -4820,28 +4830,28 @@
         <v>230487</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" s="19"/>
     </row>
@@ -4850,28 +4860,28 @@
         <v>207320</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" s="19"/>
     </row>
@@ -4880,28 +4890,28 @@
         <v>389875</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" s="19"/>
     </row>
@@ -4910,28 +4920,28 @@
         <v>230493</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" s="19"/>
     </row>
@@ -4940,28 +4950,28 @@
         <v>171349</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J51" s="19"/>
     </row>
@@ -4970,28 +4980,28 @@
         <v>389879</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" s="19"/>
     </row>
@@ -5000,28 +5010,28 @@
         <v>389880</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" s="19"/>
     </row>
@@ -5030,28 +5040,28 @@
         <v>389860</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E54" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="G54" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J54" s="19"/>
     </row>
@@ -5060,28 +5070,28 @@
         <v>389861</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E55" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="G55" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J55" s="19"/>
     </row>
@@ -5090,28 +5100,28 @@
         <v>389862</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E56" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G56" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J56" s="19"/>
     </row>
@@ -5120,28 +5130,28 @@
         <v>389865</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J57" s="19"/>
     </row>
@@ -5150,28 +5160,28 @@
         <v>389866</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J58" s="19"/>
     </row>
@@ -5180,28 +5190,28 @@
         <v>389864</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J59" s="19"/>
     </row>
@@ -5210,28 +5220,28 @@
         <v>389873</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60" s="19"/>
     </row>
@@ -5240,28 +5250,28 @@
         <v>389874</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" s="19"/>
     </row>
@@ -5270,28 +5280,28 @@
         <v>389865</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J62" s="19"/>
     </row>
@@ -5300,58 +5310,58 @@
         <v>210774</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J64" s="19"/>
     </row>
@@ -5360,28 +5370,28 @@
         <v>389866</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J65" s="19"/>
     </row>
@@ -5390,88 +5400,88 @@
         <v>368026</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="G66" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J66" s="19"/>
     </row>
     <row r="67" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J67" s="19"/>
     </row>
     <row r="68" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J68" s="19"/>
     </row>
@@ -5480,28 +5490,28 @@
         <v>388023</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E69" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="G69" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J69" s="19"/>
     </row>
@@ -5510,28 +5520,28 @@
         <v>368024</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="G70" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J70" s="19"/>
     </row>
@@ -5540,28 +5550,28 @@
         <v>368022</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="G71" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J71" s="19"/>
     </row>
@@ -5570,28 +5580,28 @@
         <v>368021</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E72" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="G72" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J72" s="19"/>
     </row>
@@ -5600,28 +5610,28 @@
         <v>362170</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="G73" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J73" s="19"/>
     </row>
@@ -5630,28 +5640,28 @@
         <v>362169</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E74" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="G74" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J74" s="19"/>
     </row>
@@ -5660,28 +5670,28 @@
         <v>393911</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75" s="19"/>
     </row>
@@ -5690,28 +5700,28 @@
         <v>393912</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J76" s="19"/>
     </row>
@@ -5720,28 +5730,28 @@
         <v>393909</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J77" s="19"/>
     </row>
@@ -5750,38 +5760,46 @@
         <v>393910</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J78" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F11:F15"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="I11:I15"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I36:I38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="D39:D41"/>
@@ -5789,20 +5807,12 @@
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:D38"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="E36:E38"/>
     <mergeCell ref="F36:F38"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="I11:I15"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -5813,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5826,14 +5836,14 @@
     <col min="5" max="5" width="15.28515625" style="24" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="24"/>
+    <col min="8" max="8" width="12.85546875" style="24" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="24" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -5854,13 +5864,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5874,22 +5884,22 @@
         <v>7</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="15"/>
     </row>
@@ -5908,16 +5918,16 @@
         <v>7</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="15"/>
     </row>
@@ -5936,16 +5946,16 @@
         <v>7</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="15"/>
     </row>
@@ -5960,22 +5970,22 @@
         <v>7</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="15"/>
     </row>
@@ -5991,19 +6001,19 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="15"/>
     </row>
@@ -6012,28 +6022,28 @@
         <v>389867</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="15"/>
     </row>
@@ -6042,7 +6052,7 @@
         <v>389868</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>7</v>
@@ -6051,19 +6061,19 @@
         <v>6</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="15"/>
     </row>
@@ -6072,28 +6082,28 @@
         <v>389869</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="15"/>
     </row>
@@ -6102,28 +6112,28 @@
         <v>389870</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="15"/>
     </row>
@@ -6132,28 +6142,28 @@
         <v>389878</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="19"/>
     </row>
@@ -6162,28 +6172,28 @@
         <v>389876</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="19"/>
     </row>
@@ -6192,28 +6202,28 @@
         <v>389877</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="G13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="19"/>
     </row>
@@ -6222,28 +6232,28 @@
         <v>389871</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="19"/>
     </row>
@@ -6252,28 +6262,28 @@
         <v>389872</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" s="19"/>
     </row>
